--- a/Code/Results/Cases/Case_5_180/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_180/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.012456484939475</v>
+        <v>1.037657214017382</v>
       </c>
       <c r="D2">
-        <v>1.026506605570064</v>
+        <v>1.03962185197878</v>
       </c>
       <c r="E2">
-        <v>1.025401734843747</v>
+        <v>1.045816212972785</v>
       </c>
       <c r="F2">
-        <v>1.0321204636429</v>
+        <v>1.055268759670722</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.047073127617185</v>
+        <v>1.039401280020186</v>
       </c>
       <c r="J2">
-        <v>1.034270902469612</v>
+        <v>1.042758894051823</v>
       </c>
       <c r="K2">
-        <v>1.037608610972352</v>
+        <v>1.042406517694912</v>
       </c>
       <c r="L2">
-        <v>1.036518172354055</v>
+        <v>1.048583392152967</v>
       </c>
       <c r="M2">
-        <v>1.043149736408039</v>
+        <v>1.058009683342602</v>
       </c>
       <c r="N2">
-        <v>1.005712725503999</v>
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.016347715534652</v>
+        <v>1.038489636446296</v>
       </c>
       <c r="D3">
-        <v>1.029235636119951</v>
+        <v>1.040226279985467</v>
       </c>
       <c r="E3">
-        <v>1.028668669787651</v>
+        <v>1.046567634715181</v>
       </c>
       <c r="F3">
-        <v>1.035819635003059</v>
+        <v>1.056127261425557</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.04813357039148</v>
+        <v>1.039584969961563</v>
       </c>
       <c r="J3">
-        <v>1.036402433340349</v>
+        <v>1.043236374408761</v>
       </c>
       <c r="K3">
-        <v>1.039507623082903</v>
+        <v>1.042821744567823</v>
       </c>
       <c r="L3">
-        <v>1.038947413640063</v>
+        <v>1.049146487206007</v>
       </c>
       <c r="M3">
-        <v>1.046013826806026</v>
+        <v>1.058681477803561</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.018820416292622</v>
+        <v>1.039028952526641</v>
       </c>
       <c r="D4">
-        <v>1.030972788732035</v>
+        <v>1.040617925214927</v>
       </c>
       <c r="E4">
-        <v>1.030750328729981</v>
+        <v>1.047054865859397</v>
       </c>
       <c r="F4">
-        <v>1.038176629179638</v>
+        <v>1.056683970986043</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.048799666530669</v>
+        <v>1.039702999176619</v>
       </c>
       <c r="J4">
-        <v>1.037754645912555</v>
+        <v>1.043545347898727</v>
       </c>
       <c r="K4">
-        <v>1.040711235927657</v>
+        <v>1.043090267475392</v>
       </c>
       <c r="L4">
-        <v>1.04049126644327</v>
+        <v>1.04951119168624</v>
       </c>
       <c r="M4">
-        <v>1.047835135823266</v>
+        <v>1.05911672932896</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.019849450591992</v>
+        <v>1.039255842842391</v>
       </c>
       <c r="D5">
-        <v>1.031696391596046</v>
+        <v>1.040782700347063</v>
       </c>
       <c r="E5">
-        <v>1.031617957215048</v>
+        <v>1.047259937991736</v>
       </c>
       <c r="F5">
-        <v>1.03915900600842</v>
+        <v>1.056918297341615</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.049074974144054</v>
+        <v>1.039752419123311</v>
       </c>
       <c r="J5">
-        <v>1.038316806422703</v>
+        <v>1.043675241870246</v>
       </c>
       <c r="K5">
-        <v>1.041211347923747</v>
+        <v>1.043203115753318</v>
       </c>
       <c r="L5">
-        <v>1.041133768161082</v>
+        <v>1.049664594404023</v>
       </c>
       <c r="M5">
-        <v>1.048593372888185</v>
+        <v>1.059299840398699</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.020021624187376</v>
+        <v>1.03929394816549</v>
       </c>
       <c r="D6">
-        <v>1.031817500076988</v>
+        <v>1.040810374240536</v>
       </c>
       <c r="E6">
-        <v>1.031763202338444</v>
+        <v>1.047294384533399</v>
       </c>
       <c r="F6">
-        <v>1.039323460195375</v>
+        <v>1.056957658460993</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.049120925264073</v>
+        <v>1.039760705228033</v>
       </c>
       <c r="J6">
-        <v>1.038410830216103</v>
+        <v>1.043697051690711</v>
       </c>
       <c r="K6">
-        <v>1.041294977687013</v>
+        <v>1.043222061166898</v>
       </c>
       <c r="L6">
-        <v>1.041241268858666</v>
+        <v>1.04969035609956</v>
       </c>
       <c r="M6">
-        <v>1.048720253745678</v>
+        <v>1.059330593205359</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.018834207088515</v>
+        <v>1.039031983612367</v>
       </c>
       <c r="D7">
-        <v>1.03098248362879</v>
+        <v>1.040620126449639</v>
       </c>
       <c r="E7">
-        <v>1.030761951207066</v>
+        <v>1.047057605101971</v>
       </c>
       <c r="F7">
-        <v>1.038189788818694</v>
+        <v>1.056687100946337</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.048803363632948</v>
+        <v>1.039703660313301</v>
       </c>
       <c r="J7">
-        <v>1.037762182111719</v>
+        <v>1.043547083544005</v>
       </c>
       <c r="K7">
-        <v>1.040717941397854</v>
+        <v>1.043091775513445</v>
       </c>
       <c r="L7">
-        <v>1.040499877027996</v>
+        <v>1.049513241144623</v>
       </c>
       <c r="M7">
-        <v>1.047845296393586</v>
+        <v>1.059119175554112</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.013781102718648</v>
+        <v>1.037938392608947</v>
       </c>
       <c r="D8">
-        <v>1.027434948678456</v>
+        <v>1.039826008399548</v>
       </c>
       <c r="E8">
-        <v>1.026512629326181</v>
+        <v>1.046069948995898</v>
       </c>
       <c r="F8">
-        <v>1.033378359233146</v>
+        <v>1.055558644379339</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.047435721556375</v>
+        <v>1.039463530413806</v>
       </c>
       <c r="J8">
-        <v>1.034996959529024</v>
+        <v>1.04292025755402</v>
       </c>
       <c r="K8">
-        <v>1.038255689878304</v>
+        <v>1.042546877242584</v>
       </c>
       <c r="L8">
-        <v>1.037345057720717</v>
+        <v>1.048773620578194</v>
       </c>
       <c r="M8">
-        <v>1.044124411989626</v>
+        <v>1.058236603377431</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.004515352785912</v>
+        <v>1.036016652681913</v>
       </c>
       <c r="D9">
-        <v>1.020955487114559</v>
+        <v>1.038430884260313</v>
       </c>
       <c r="E9">
-        <v>1.018767157845349</v>
+        <v>1.044337399349816</v>
       </c>
       <c r="F9">
-        <v>1.024607231434148</v>
+        <v>1.053579449988948</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.044867800400661</v>
+        <v>1.039034062500034</v>
       </c>
       <c r="J9">
-        <v>1.029909663735495</v>
+        <v>1.04181585781763</v>
       </c>
       <c r="K9">
-        <v>1.033717485125708</v>
+        <v>1.041585552519119</v>
       </c>
       <c r="L9">
-        <v>1.031562916118518</v>
+        <v>1.047473017195039</v>
       </c>
       <c r="M9">
-        <v>1.037313301929925</v>
+        <v>1.056685727941888</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9980723576506511</v>
+        <v>1.034739162516298</v>
       </c>
       <c r="D10">
-        <v>1.016470143894243</v>
+        <v>1.037503740256264</v>
       </c>
       <c r="E10">
-        <v>1.013414906155414</v>
+        <v>1.043187740978389</v>
       </c>
       <c r="F10">
-        <v>1.018544890449262</v>
+        <v>1.052266352246685</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.043043518976287</v>
+        <v>1.038743538928407</v>
       </c>
       <c r="J10">
-        <v>1.026362665094479</v>
+        <v>1.041079768402845</v>
       </c>
       <c r="K10">
-        <v>1.030548258829909</v>
+        <v>1.040943974733441</v>
       </c>
       <c r="L10">
-        <v>1.027546102175416</v>
+        <v>1.046607853648551</v>
       </c>
       <c r="M10">
-        <v>1.032587193899811</v>
+        <v>1.055654822324958</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9952139961495156</v>
+        <v>1.03418688699508</v>
       </c>
       <c r="D11">
-        <v>1.014485735710314</v>
+        <v>1.037102996137232</v>
       </c>
       <c r="E11">
-        <v>1.011048937589088</v>
+        <v>1.042691224849922</v>
       </c>
       <c r="F11">
-        <v>1.015864565220561</v>
+        <v>1.05169930132637</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.042225479317407</v>
+        <v>1.038616749192021</v>
       </c>
       <c r="J11">
-        <v>1.024787242852382</v>
+        <v>1.040761091981187</v>
       </c>
       <c r="K11">
-        <v>1.029139546774017</v>
+        <v>1.040666015512842</v>
       </c>
       <c r="L11">
-        <v>1.025765452432852</v>
+        <v>1.046233698886381</v>
       </c>
       <c r="M11">
-        <v>1.030493374861886</v>
+        <v>1.055209164296702</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9941414892518351</v>
+        <v>1.033981882132093</v>
       </c>
       <c r="D12">
-        <v>1.013742031692735</v>
+        <v>1.036954251225274</v>
       </c>
       <c r="E12">
-        <v>1.010162508519086</v>
+        <v>1.042506992928689</v>
       </c>
       <c r="F12">
-        <v>1.014860278181156</v>
+        <v>1.051488905136042</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.041917266366156</v>
+        <v>1.038569505658709</v>
       </c>
       <c r="J12">
-        <v>1.024195878090751</v>
+        <v>1.040642730978103</v>
       </c>
       <c r="K12">
-        <v>1.028610608213138</v>
+        <v>1.040562747548166</v>
       </c>
       <c r="L12">
-        <v>1.025097566861167</v>
+        <v>1.046094792784867</v>
       </c>
       <c r="M12">
-        <v>1.029708211001428</v>
+        <v>1.055043738591739</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9943720418563967</v>
+        <v>1.034025850240929</v>
       </c>
       <c r="D13">
-        <v>1.013901862062412</v>
+        <v>1.036986152538651</v>
       </c>
       <c r="E13">
-        <v>1.01035300011934</v>
+        <v>1.042546502388172</v>
       </c>
       <c r="F13">
-        <v>1.015076101091154</v>
+        <v>1.051534025312191</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.041983578452907</v>
+        <v>1.038579646250792</v>
       </c>
       <c r="J13">
-        <v>1.024323011647472</v>
+        <v>1.040668119358978</v>
       </c>
       <c r="K13">
-        <v>1.028724327858195</v>
+        <v>1.04058489983116</v>
       </c>
       <c r="L13">
-        <v>1.025241127863899</v>
+        <v>1.046124585349218</v>
       </c>
       <c r="M13">
-        <v>1.029876972495241</v>
+        <v>1.055079217892445</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9951255653382749</v>
+        <v>1.034169938468171</v>
       </c>
       <c r="D14">
-        <v>1.014424397243428</v>
+        <v>1.037090698596249</v>
       </c>
       <c r="E14">
-        <v>1.010975822157976</v>
+        <v>1.042675992166666</v>
       </c>
       <c r="F14">
-        <v>1.015781730233188</v>
+        <v>1.051681905171795</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.042200092006863</v>
+        <v>1.038612847045453</v>
       </c>
       <c r="J14">
-        <v>1.024738488026324</v>
+        <v>1.040751308020078</v>
       </c>
       <c r="K14">
-        <v>1.029095941672087</v>
+        <v>1.040657479782593</v>
       </c>
       <c r="L14">
-        <v>1.025710378414749</v>
+        <v>1.046222215394602</v>
       </c>
       <c r="M14">
-        <v>1.030428626303695</v>
+        <v>1.055195487871211</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9955883917994582</v>
+        <v>1.034258733901727</v>
       </c>
       <c r="D15">
-        <v>1.014745464895491</v>
+        <v>1.037155127410191</v>
       </c>
       <c r="E15">
-        <v>1.011358545717094</v>
+        <v>1.042755801159341</v>
       </c>
       <c r="F15">
-        <v>1.016215327509781</v>
+        <v>1.051773049606801</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.04233291176044</v>
+        <v>1.038633283537211</v>
       </c>
       <c r="J15">
-        <v>1.024993650012651</v>
+        <v>1.040802564612616</v>
       </c>
       <c r="K15">
-        <v>1.029324146075908</v>
+        <v>1.040702195870724</v>
       </c>
       <c r="L15">
-        <v>1.025998633359714</v>
+        <v>1.046282378025461</v>
       </c>
       <c r="M15">
-        <v>1.030767524886828</v>
+        <v>1.055267140472715</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9982605730430971</v>
+        <v>1.034775834040808</v>
       </c>
       <c r="D16">
-        <v>1.01660093080585</v>
+        <v>1.037530351550985</v>
       </c>
       <c r="E16">
-        <v>1.013570880016277</v>
+        <v>1.043220720537265</v>
       </c>
       <c r="F16">
-        <v>1.018721577246468</v>
+        <v>1.052304017938912</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.043097206084343</v>
+        <v>1.038751932725751</v>
       </c>
       <c r="J16">
-        <v>1.026466367171688</v>
+        <v>1.041100919182328</v>
       </c>
       <c r="K16">
-        <v>1.030640965585171</v>
+        <v>1.040962418881773</v>
       </c>
       <c r="L16">
-        <v>1.027663384984222</v>
+        <v>1.046632695030962</v>
       </c>
       <c r="M16">
-        <v>1.032725129609442</v>
+        <v>1.055684414726655</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9999180830285055</v>
+        <v>1.035100435758285</v>
       </c>
       <c r="D17">
-        <v>1.017753329774135</v>
+        <v>1.037765912549447</v>
       </c>
       <c r="E17">
-        <v>1.014945431124788</v>
+        <v>1.043512699863635</v>
       </c>
       <c r="F17">
-        <v>1.020278611122054</v>
+        <v>1.052637491163382</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.043569009458864</v>
+        <v>1.038826093388207</v>
       </c>
       <c r="J17">
-        <v>1.02737940954885</v>
+        <v>1.041288084821105</v>
       </c>
       <c r="K17">
-        <v>1.031457078104279</v>
+        <v>1.041125610157616</v>
       </c>
       <c r="L17">
-        <v>1.028696390859796</v>
+        <v>1.046852565665232</v>
       </c>
       <c r="M17">
-        <v>1.033940185785581</v>
+        <v>1.055946356739854</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.000878305846413</v>
+        <v>1.035289855833302</v>
       </c>
       <c r="D18">
-        <v>1.018421448975496</v>
+        <v>1.037903380193525</v>
       </c>
       <c r="E18">
-        <v>1.015742536069184</v>
+        <v>1.043683131142098</v>
       </c>
       <c r="F18">
-        <v>1.021181495107303</v>
+        <v>1.052832147848978</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.043841501178487</v>
+        <v>1.03886925437128</v>
       </c>
       <c r="J18">
-        <v>1.027908172859394</v>
+        <v>1.041397260604268</v>
       </c>
       <c r="K18">
-        <v>1.031929603826653</v>
+        <v>1.041220782135416</v>
       </c>
       <c r="L18">
-        <v>1.0292949551573</v>
+        <v>1.046980857420805</v>
       </c>
       <c r="M18">
-        <v>1.034644357363013</v>
+        <v>1.056099213491025</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.001204616314047</v>
+        <v>1.035354457614292</v>
       </c>
       <c r="D19">
-        <v>1.01864858019459</v>
+        <v>1.037950264738639</v>
       </c>
       <c r="E19">
-        <v>1.016013549697072</v>
+        <v>1.043741264892184</v>
       </c>
       <c r="F19">
-        <v>1.021488466396037</v>
+        <v>1.052898545687064</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.04393395921154</v>
+        <v>1.038883954900726</v>
       </c>
       <c r="J19">
-        <v>1.028087830228803</v>
+        <v>1.041434487572279</v>
       </c>
       <c r="K19">
-        <v>1.032090135568168</v>
+        <v>1.041253230782777</v>
       </c>
       <c r="L19">
-        <v>1.029498384347304</v>
+        <v>1.047024609169818</v>
       </c>
       <c r="M19">
-        <v>1.034883698949578</v>
+        <v>1.056151345582887</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9997409314151844</v>
+        <v>1.035065600221807</v>
       </c>
       <c r="D20">
-        <v>1.017630109615665</v>
+        <v>1.037740631943936</v>
       </c>
       <c r="E20">
-        <v>1.014798437837359</v>
+        <v>1.04348136033525</v>
       </c>
       <c r="F20">
-        <v>1.020112107841899</v>
+        <v>1.052601697381785</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.043518669963246</v>
+        <v>1.038818146542044</v>
       </c>
       <c r="J20">
-        <v>1.027281843375871</v>
+        <v>1.041268003168603</v>
       </c>
       <c r="K20">
-        <v>1.031369880336238</v>
+        <v>1.041108102792807</v>
       </c>
       <c r="L20">
-        <v>1.028585971643509</v>
+        <v>1.046828970968326</v>
       </c>
       <c r="M20">
-        <v>1.033810294566757</v>
+        <v>1.05591824554595</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9949039732508943</v>
+        <v>1.034127504340032</v>
       </c>
       <c r="D21">
-        <v>1.014270708209189</v>
+        <v>1.037059909356267</v>
       </c>
       <c r="E21">
-        <v>1.010792629214838</v>
+        <v>1.042637855220606</v>
       </c>
       <c r="F21">
-        <v>1.015574183284598</v>
+        <v>1.05163835182456</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.042136455530309</v>
+        <v>1.038603074323604</v>
       </c>
       <c r="J21">
-        <v>1.0246163132692</v>
+        <v>1.040726810756924</v>
       </c>
       <c r="K21">
-        <v>1.028986669205655</v>
+        <v>1.040636107380124</v>
       </c>
       <c r="L21">
-        <v>1.025572376684826</v>
+        <v>1.046193463789955</v>
       </c>
       <c r="M21">
-        <v>1.030266385563332</v>
+        <v>1.055161246167844</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9918001264721876</v>
+        <v>1.033538467314365</v>
       </c>
       <c r="D22">
-        <v>1.012120155529403</v>
+        <v>1.036632545306827</v>
       </c>
       <c r="E22">
-        <v>1.008229852730007</v>
+        <v>1.042108646628634</v>
       </c>
       <c r="F22">
-        <v>1.012670495895074</v>
+        <v>1.051034000196321</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.041242125104735</v>
+        <v>1.038466992920037</v>
       </c>
       <c r="J22">
-        <v>1.022904487382289</v>
+        <v>1.040386597857714</v>
       </c>
       <c r="K22">
-        <v>1.027455273712726</v>
+        <v>1.040339221171755</v>
       </c>
       <c r="L22">
-        <v>1.02364001882374</v>
+        <v>1.045794310417572</v>
       </c>
       <c r="M22">
-        <v>1.027995058390311</v>
+        <v>1.054685936741192</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9934516458676341</v>
+        <v>1.033850652372672</v>
       </c>
       <c r="D23">
-        <v>1.013263932143828</v>
+        <v>1.036859038441647</v>
       </c>
       <c r="E23">
-        <v>1.009592730507426</v>
+        <v>1.042389081737477</v>
       </c>
       <c r="F23">
-        <v>1.014214718921693</v>
+        <v>1.051354250544225</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.04171866895524</v>
+        <v>1.038539213234935</v>
       </c>
       <c r="J23">
-        <v>1.02381544584847</v>
+        <v>1.040566945378897</v>
       </c>
       <c r="K23">
-        <v>1.028270294133507</v>
+        <v>1.040496617492863</v>
       </c>
       <c r="L23">
-        <v>1.024668052763205</v>
+        <v>1.046005869310612</v>
       </c>
       <c r="M23">
-        <v>1.029203327430842</v>
+        <v>1.05493784544178</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9998209988862592</v>
+        <v>1.03508134063765</v>
       </c>
       <c r="D24">
-        <v>1.017685800015886</v>
+        <v>1.03775205494873</v>
       </c>
       <c r="E24">
-        <v>1.01486487211536</v>
+        <v>1.043495520934156</v>
       </c>
       <c r="F24">
-        <v>1.020187359881459</v>
+        <v>1.052617870595801</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.043541424558657</v>
+        <v>1.038821737675472</v>
       </c>
       <c r="J24">
-        <v>1.027325941052162</v>
+        <v>1.041277077186964</v>
       </c>
       <c r="K24">
-        <v>1.031409292051996</v>
+        <v>1.041116013663052</v>
       </c>
       <c r="L24">
-        <v>1.02863587758599</v>
+        <v>1.04683963225759</v>
       </c>
       <c r="M24">
-        <v>1.033869000856845</v>
+        <v>1.055930947567119</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.006955881072377</v>
+        <v>1.03651282914136</v>
       </c>
       <c r="D25">
-        <v>1.022658853555325</v>
+        <v>1.038791047064497</v>
       </c>
       <c r="E25">
-        <v>1.020801613679133</v>
+        <v>1.044784365868614</v>
       </c>
       <c r="F25">
-        <v>1.026911277306155</v>
+        <v>1.054090005983509</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.045550999254856</v>
+        <v>1.039145835748609</v>
       </c>
       <c r="J25">
-        <v>1.031251398442665</v>
+        <v>1.042101346105098</v>
       </c>
       <c r="K25">
-        <v>1.034915315871199</v>
+        <v>1.041834205911691</v>
       </c>
       <c r="L25">
-        <v>1.0330853708693</v>
+        <v>1.047808924977457</v>
       </c>
       <c r="M25">
-        <v>1.039105715436754</v>
+        <v>1.057086143002652</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>

--- a/Code/Results/Cases/Case_5_180/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_180/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.037657214017382</v>
+        <v>1.012456484939476</v>
       </c>
       <c r="D2">
-        <v>1.03962185197878</v>
+        <v>1.026506605570064</v>
       </c>
       <c r="E2">
-        <v>1.045816212972785</v>
+        <v>1.025401734843747</v>
       </c>
       <c r="F2">
-        <v>1.055268759670722</v>
+        <v>1.032120463642901</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.039401280020186</v>
+        <v>1.047073127617185</v>
       </c>
       <c r="J2">
-        <v>1.042758894051823</v>
+        <v>1.034270902469613</v>
       </c>
       <c r="K2">
-        <v>1.042406517694912</v>
+        <v>1.037608610972352</v>
       </c>
       <c r="L2">
-        <v>1.048583392152967</v>
+        <v>1.036518172354056</v>
       </c>
       <c r="M2">
-        <v>1.058009683342602</v>
+        <v>1.04314973640804</v>
       </c>
       <c r="N2">
-        <v>1.005712725503983</v>
+        <v>1.005712725503999</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.038489636446296</v>
+        <v>1.016347715534653</v>
       </c>
       <c r="D3">
-        <v>1.040226279985467</v>
+        <v>1.029235636119951</v>
       </c>
       <c r="E3">
-        <v>1.046567634715181</v>
+        <v>1.028668669787651</v>
       </c>
       <c r="F3">
-        <v>1.056127261425557</v>
+        <v>1.03581963500306</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.039584969961563</v>
+        <v>1.04813357039148</v>
       </c>
       <c r="J3">
-        <v>1.043236374408761</v>
+        <v>1.03640243334035</v>
       </c>
       <c r="K3">
-        <v>1.042821744567823</v>
+        <v>1.039507623082904</v>
       </c>
       <c r="L3">
-        <v>1.049146487206007</v>
+        <v>1.038947413640064</v>
       </c>
       <c r="M3">
-        <v>1.058681477803561</v>
+        <v>1.046013826806027</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.039028952526641</v>
+        <v>1.018820416292623</v>
       </c>
       <c r="D4">
-        <v>1.040617925214927</v>
+        <v>1.030972788732035</v>
       </c>
       <c r="E4">
-        <v>1.047054865859397</v>
+        <v>1.030750328729982</v>
       </c>
       <c r="F4">
-        <v>1.056683970986043</v>
+        <v>1.038176629179639</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.039702999176619</v>
+        <v>1.048799666530669</v>
       </c>
       <c r="J4">
-        <v>1.043545347898727</v>
+        <v>1.037754645912556</v>
       </c>
       <c r="K4">
-        <v>1.043090267475392</v>
+        <v>1.040711235927658</v>
       </c>
       <c r="L4">
-        <v>1.04951119168624</v>
+        <v>1.040491266443271</v>
       </c>
       <c r="M4">
-        <v>1.05911672932896</v>
+        <v>1.047835135823267</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.039255842842391</v>
+        <v>1.019849450591993</v>
       </c>
       <c r="D5">
-        <v>1.040782700347063</v>
+        <v>1.031696391596047</v>
       </c>
       <c r="E5">
-        <v>1.047259937991736</v>
+        <v>1.031617957215049</v>
       </c>
       <c r="F5">
-        <v>1.056918297341615</v>
+        <v>1.03915900600842</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.039752419123311</v>
+        <v>1.049074974144054</v>
       </c>
       <c r="J5">
-        <v>1.043675241870246</v>
+        <v>1.038316806422703</v>
       </c>
       <c r="K5">
-        <v>1.043203115753318</v>
+        <v>1.041211347923747</v>
       </c>
       <c r="L5">
-        <v>1.049664594404023</v>
+        <v>1.041133768161082</v>
       </c>
       <c r="M5">
-        <v>1.059299840398699</v>
+        <v>1.048593372888186</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.03929394816549</v>
+        <v>1.020021624187377</v>
       </c>
       <c r="D6">
-        <v>1.040810374240536</v>
+        <v>1.031817500076989</v>
       </c>
       <c r="E6">
-        <v>1.047294384533399</v>
+        <v>1.031763202338444</v>
       </c>
       <c r="F6">
-        <v>1.056957658460993</v>
+        <v>1.039323460195375</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.039760705228033</v>
+        <v>1.049120925264073</v>
       </c>
       <c r="J6">
-        <v>1.043697051690711</v>
+        <v>1.038410830216104</v>
       </c>
       <c r="K6">
-        <v>1.043222061166898</v>
+        <v>1.041294977687013</v>
       </c>
       <c r="L6">
-        <v>1.04969035609956</v>
+        <v>1.041241268858667</v>
       </c>
       <c r="M6">
-        <v>1.059330593205359</v>
+        <v>1.048720253745679</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.039031983612367</v>
+        <v>1.018834207088516</v>
       </c>
       <c r="D7">
-        <v>1.040620126449639</v>
+        <v>1.030982483628791</v>
       </c>
       <c r="E7">
-        <v>1.047057605101971</v>
+        <v>1.030761951207067</v>
       </c>
       <c r="F7">
-        <v>1.056687100946337</v>
+        <v>1.038189788818694</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.039703660313301</v>
+        <v>1.048803363632949</v>
       </c>
       <c r="J7">
-        <v>1.043547083544005</v>
+        <v>1.03776218211172</v>
       </c>
       <c r="K7">
-        <v>1.043091775513445</v>
+        <v>1.040717941397854</v>
       </c>
       <c r="L7">
-        <v>1.049513241144623</v>
+        <v>1.040499877027997</v>
       </c>
       <c r="M7">
-        <v>1.059119175554112</v>
+        <v>1.047845296393587</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.037938392608947</v>
+        <v>1.013781102718649</v>
       </c>
       <c r="D8">
-        <v>1.039826008399548</v>
+        <v>1.027434948678458</v>
       </c>
       <c r="E8">
-        <v>1.046069948995898</v>
+        <v>1.026512629326182</v>
       </c>
       <c r="F8">
-        <v>1.055558644379339</v>
+        <v>1.033378359233148</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.039463530413806</v>
+        <v>1.047435721556375</v>
       </c>
       <c r="J8">
-        <v>1.04292025755402</v>
+        <v>1.034996959529025</v>
       </c>
       <c r="K8">
-        <v>1.042546877242584</v>
+        <v>1.038255689878305</v>
       </c>
       <c r="L8">
-        <v>1.048773620578194</v>
+        <v>1.037345057720718</v>
       </c>
       <c r="M8">
-        <v>1.058236603377431</v>
+        <v>1.044124411989628</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.036016652681913</v>
+        <v>1.004515352785912</v>
       </c>
       <c r="D9">
-        <v>1.038430884260313</v>
+        <v>1.020955487114561</v>
       </c>
       <c r="E9">
-        <v>1.044337399349816</v>
+        <v>1.01876715784535</v>
       </c>
       <c r="F9">
-        <v>1.053579449988948</v>
+        <v>1.024607231434149</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.039034062500034</v>
+        <v>1.044867800400661</v>
       </c>
       <c r="J9">
-        <v>1.04181585781763</v>
+        <v>1.029909663735495</v>
       </c>
       <c r="K9">
-        <v>1.041585552519119</v>
+        <v>1.033717485125709</v>
       </c>
       <c r="L9">
-        <v>1.047473017195039</v>
+        <v>1.031562916118519</v>
       </c>
       <c r="M9">
-        <v>1.056685727941888</v>
+        <v>1.037313301929926</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.034739162516298</v>
+        <v>0.9980723576506519</v>
       </c>
       <c r="D10">
-        <v>1.037503740256264</v>
+        <v>1.016470143894243</v>
       </c>
       <c r="E10">
-        <v>1.043187740978389</v>
+        <v>1.013414906155415</v>
       </c>
       <c r="F10">
-        <v>1.052266352246685</v>
+        <v>1.018544890449263</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.038743538928407</v>
+        <v>1.043043518976287</v>
       </c>
       <c r="J10">
-        <v>1.041079768402845</v>
+        <v>1.02636266509448</v>
       </c>
       <c r="K10">
-        <v>1.040943974733441</v>
+        <v>1.03054825882991</v>
       </c>
       <c r="L10">
-        <v>1.046607853648551</v>
+        <v>1.027546102175417</v>
       </c>
       <c r="M10">
-        <v>1.055654822324958</v>
+        <v>1.032587193899812</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.03418688699508</v>
+        <v>0.9952139961495156</v>
       </c>
       <c r="D11">
-        <v>1.037102996137232</v>
+        <v>1.014485735710314</v>
       </c>
       <c r="E11">
-        <v>1.042691224849922</v>
+        <v>1.011048937589088</v>
       </c>
       <c r="F11">
-        <v>1.05169930132637</v>
+        <v>1.015864565220561</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.038616749192021</v>
+        <v>1.042225479317406</v>
       </c>
       <c r="J11">
-        <v>1.040761091981187</v>
+        <v>1.024787242852382</v>
       </c>
       <c r="K11">
-        <v>1.040666015512842</v>
+        <v>1.029139546774017</v>
       </c>
       <c r="L11">
-        <v>1.046233698886381</v>
+        <v>1.025765452432852</v>
       </c>
       <c r="M11">
-        <v>1.055209164296702</v>
+        <v>1.030493374861885</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.033981882132093</v>
+        <v>0.9941414892518369</v>
       </c>
       <c r="D12">
-        <v>1.036954251225274</v>
+        <v>1.013742031692736</v>
       </c>
       <c r="E12">
-        <v>1.042506992928689</v>
+        <v>1.010162508519087</v>
       </c>
       <c r="F12">
-        <v>1.051488905136042</v>
+        <v>1.014860278181158</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.038569505658709</v>
+        <v>1.041917266366157</v>
       </c>
       <c r="J12">
-        <v>1.040642730978103</v>
+        <v>1.024195878090753</v>
       </c>
       <c r="K12">
-        <v>1.040562747548166</v>
+        <v>1.028610608213139</v>
       </c>
       <c r="L12">
-        <v>1.046094792784867</v>
+        <v>1.025097566861169</v>
       </c>
       <c r="M12">
-        <v>1.055043738591739</v>
+        <v>1.029708211001429</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.034025850240929</v>
+        <v>0.9943720418563973</v>
       </c>
       <c r="D13">
-        <v>1.036986152538651</v>
+        <v>1.013901862062413</v>
       </c>
       <c r="E13">
-        <v>1.042546502388172</v>
+        <v>1.010353000119341</v>
       </c>
       <c r="F13">
-        <v>1.051534025312191</v>
+        <v>1.015076101091154</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.038579646250792</v>
+        <v>1.041983578452908</v>
       </c>
       <c r="J13">
-        <v>1.040668119358978</v>
+        <v>1.024323011647472</v>
       </c>
       <c r="K13">
-        <v>1.04058489983116</v>
+        <v>1.028724327858195</v>
       </c>
       <c r="L13">
-        <v>1.046124585349218</v>
+        <v>1.0252411278639</v>
       </c>
       <c r="M13">
-        <v>1.055079217892445</v>
+        <v>1.029876972495241</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.034169938468171</v>
+        <v>0.9951255653382751</v>
       </c>
       <c r="D14">
-        <v>1.037090698596249</v>
+        <v>1.014424397243428</v>
       </c>
       <c r="E14">
-        <v>1.042675992166666</v>
+        <v>1.010975822157977</v>
       </c>
       <c r="F14">
-        <v>1.051681905171795</v>
+        <v>1.015781730233188</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.038612847045453</v>
+        <v>1.042200092006863</v>
       </c>
       <c r="J14">
-        <v>1.040751308020078</v>
+        <v>1.024738488026324</v>
       </c>
       <c r="K14">
-        <v>1.040657479782593</v>
+        <v>1.029095941672086</v>
       </c>
       <c r="L14">
-        <v>1.046222215394602</v>
+        <v>1.02571037841475</v>
       </c>
       <c r="M14">
-        <v>1.055195487871211</v>
+        <v>1.030428626303695</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.034258733901727</v>
+        <v>0.9955883917994582</v>
       </c>
       <c r="D15">
-        <v>1.037155127410191</v>
+        <v>1.014745464895492</v>
       </c>
       <c r="E15">
-        <v>1.042755801159341</v>
+        <v>1.011358545717094</v>
       </c>
       <c r="F15">
-        <v>1.051773049606801</v>
+        <v>1.01621532750978</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.038633283537211</v>
+        <v>1.04233291176044</v>
       </c>
       <c r="J15">
-        <v>1.040802564612616</v>
+        <v>1.024993650012651</v>
       </c>
       <c r="K15">
-        <v>1.040702195870724</v>
+        <v>1.029324146075908</v>
       </c>
       <c r="L15">
-        <v>1.046282378025461</v>
+        <v>1.025998633359714</v>
       </c>
       <c r="M15">
-        <v>1.055267140472715</v>
+        <v>1.030767524886828</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.034775834040808</v>
+        <v>0.9982605730430971</v>
       </c>
       <c r="D16">
-        <v>1.037530351550985</v>
+        <v>1.01660093080585</v>
       </c>
       <c r="E16">
-        <v>1.043220720537265</v>
+        <v>1.013570880016277</v>
       </c>
       <c r="F16">
-        <v>1.052304017938912</v>
+        <v>1.018721577246468</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.038751932725751</v>
+        <v>1.043097206084342</v>
       </c>
       <c r="J16">
-        <v>1.041100919182328</v>
+        <v>1.026466367171688</v>
       </c>
       <c r="K16">
-        <v>1.040962418881773</v>
+        <v>1.030640965585171</v>
       </c>
       <c r="L16">
-        <v>1.046632695030962</v>
+        <v>1.027663384984222</v>
       </c>
       <c r="M16">
-        <v>1.055684414726655</v>
+        <v>1.032725129609441</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.035100435758285</v>
+        <v>0.9999180830285055</v>
       </c>
       <c r="D17">
-        <v>1.037765912549447</v>
+        <v>1.017753329774134</v>
       </c>
       <c r="E17">
-        <v>1.043512699863635</v>
+        <v>1.014945431124788</v>
       </c>
       <c r="F17">
-        <v>1.052637491163382</v>
+        <v>1.020278611122054</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.038826093388207</v>
+        <v>1.043569009458864</v>
       </c>
       <c r="J17">
-        <v>1.041288084821105</v>
+        <v>1.02737940954885</v>
       </c>
       <c r="K17">
-        <v>1.041125610157616</v>
+        <v>1.031457078104279</v>
       </c>
       <c r="L17">
-        <v>1.046852565665232</v>
+        <v>1.028696390859796</v>
       </c>
       <c r="M17">
-        <v>1.055946356739854</v>
+        <v>1.033940185785581</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.035289855833302</v>
+        <v>1.000878305846414</v>
       </c>
       <c r="D18">
-        <v>1.037903380193525</v>
+        <v>1.018421448975497</v>
       </c>
       <c r="E18">
-        <v>1.043683131142098</v>
+        <v>1.015742536069185</v>
       </c>
       <c r="F18">
-        <v>1.052832147848978</v>
+        <v>1.021181495107304</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.03886925437128</v>
+        <v>1.043841501178487</v>
       </c>
       <c r="J18">
-        <v>1.041397260604268</v>
+        <v>1.027908172859394</v>
       </c>
       <c r="K18">
-        <v>1.041220782135416</v>
+        <v>1.031929603826654</v>
       </c>
       <c r="L18">
-        <v>1.046980857420805</v>
+        <v>1.029294955157301</v>
       </c>
       <c r="M18">
-        <v>1.056099213491025</v>
+        <v>1.034644357363014</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.035354457614292</v>
+        <v>1.001204616314046</v>
       </c>
       <c r="D19">
-        <v>1.037950264738639</v>
+        <v>1.018648580194589</v>
       </c>
       <c r="E19">
-        <v>1.043741264892184</v>
+        <v>1.016013549697072</v>
       </c>
       <c r="F19">
-        <v>1.052898545687064</v>
+        <v>1.021488466396037</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.038883954900726</v>
+        <v>1.043933959211539</v>
       </c>
       <c r="J19">
-        <v>1.041434487572279</v>
+        <v>1.028087830228803</v>
       </c>
       <c r="K19">
-        <v>1.041253230782777</v>
+        <v>1.032090135568168</v>
       </c>
       <c r="L19">
-        <v>1.047024609169818</v>
+        <v>1.029498384347303</v>
       </c>
       <c r="M19">
-        <v>1.056151345582887</v>
+        <v>1.034883698949578</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.035065600221807</v>
+        <v>0.9997409314151848</v>
       </c>
       <c r="D20">
-        <v>1.037740631943936</v>
+        <v>1.017630109615665</v>
       </c>
       <c r="E20">
-        <v>1.04348136033525</v>
+        <v>1.014798437837359</v>
       </c>
       <c r="F20">
-        <v>1.052601697381785</v>
+        <v>1.0201121078419</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.038818146542044</v>
+        <v>1.043518669963247</v>
       </c>
       <c r="J20">
-        <v>1.041268003168603</v>
+        <v>1.027281843375872</v>
       </c>
       <c r="K20">
-        <v>1.041108102792807</v>
+        <v>1.031369880336239</v>
       </c>
       <c r="L20">
-        <v>1.046828970968326</v>
+        <v>1.028585971643509</v>
       </c>
       <c r="M20">
-        <v>1.05591824554595</v>
+        <v>1.033810294566758</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.034127504340032</v>
+        <v>0.994903973250894</v>
       </c>
       <c r="D21">
-        <v>1.037059909356267</v>
+        <v>1.014270708209189</v>
       </c>
       <c r="E21">
-        <v>1.042637855220606</v>
+        <v>1.010792629214838</v>
       </c>
       <c r="F21">
-        <v>1.05163835182456</v>
+        <v>1.015574183284597</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.038603074323604</v>
+        <v>1.042136455530309</v>
       </c>
       <c r="J21">
-        <v>1.040726810756924</v>
+        <v>1.0246163132692</v>
       </c>
       <c r="K21">
-        <v>1.040636107380124</v>
+        <v>1.028986669205655</v>
       </c>
       <c r="L21">
-        <v>1.046193463789955</v>
+        <v>1.025572376684826</v>
       </c>
       <c r="M21">
-        <v>1.055161246167844</v>
+        <v>1.030266385563332</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.033538467314365</v>
+        <v>0.9918001264721872</v>
       </c>
       <c r="D22">
-        <v>1.036632545306827</v>
+        <v>1.012120155529403</v>
       </c>
       <c r="E22">
-        <v>1.042108646628634</v>
+        <v>1.008229852730007</v>
       </c>
       <c r="F22">
-        <v>1.051034000196321</v>
+        <v>1.012670495895074</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.038466992920037</v>
+        <v>1.041242125104735</v>
       </c>
       <c r="J22">
-        <v>1.040386597857714</v>
+        <v>1.022904487382289</v>
       </c>
       <c r="K22">
-        <v>1.040339221171755</v>
+        <v>1.027455273712725</v>
       </c>
       <c r="L22">
-        <v>1.045794310417572</v>
+        <v>1.023640018823739</v>
       </c>
       <c r="M22">
-        <v>1.054685936741192</v>
+        <v>1.02799505839031</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.033850652372672</v>
+        <v>0.9934516458676345</v>
       </c>
       <c r="D23">
-        <v>1.036859038441647</v>
+        <v>1.013263932143828</v>
       </c>
       <c r="E23">
-        <v>1.042389081737477</v>
+        <v>1.009592730507427</v>
       </c>
       <c r="F23">
-        <v>1.051354250544225</v>
+        <v>1.014214718921694</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.038539213234935</v>
+        <v>1.04171866895524</v>
       </c>
       <c r="J23">
-        <v>1.040566945378897</v>
+        <v>1.02381544584847</v>
       </c>
       <c r="K23">
-        <v>1.040496617492863</v>
+        <v>1.028270294133507</v>
       </c>
       <c r="L23">
-        <v>1.046005869310612</v>
+        <v>1.024668052763205</v>
       </c>
       <c r="M23">
-        <v>1.05493784544178</v>
+        <v>1.029203327430842</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.03508134063765</v>
+        <v>0.9998209988862596</v>
       </c>
       <c r="D24">
-        <v>1.03775205494873</v>
+        <v>1.017685800015886</v>
       </c>
       <c r="E24">
-        <v>1.043495520934156</v>
+        <v>1.014864872115361</v>
       </c>
       <c r="F24">
-        <v>1.052617870595801</v>
+        <v>1.020187359881459</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.038821737675472</v>
+        <v>1.043541424558657</v>
       </c>
       <c r="J24">
-        <v>1.041277077186964</v>
+        <v>1.027325941052163</v>
       </c>
       <c r="K24">
-        <v>1.041116013663052</v>
+        <v>1.031409292051996</v>
       </c>
       <c r="L24">
-        <v>1.04683963225759</v>
+        <v>1.02863587758599</v>
       </c>
       <c r="M24">
-        <v>1.055930947567119</v>
+        <v>1.033869000856845</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.03651282914136</v>
+        <v>1.006955881072377</v>
       </c>
       <c r="D25">
-        <v>1.038791047064497</v>
+        <v>1.022658853555325</v>
       </c>
       <c r="E25">
-        <v>1.044784365868614</v>
+        <v>1.020801613679132</v>
       </c>
       <c r="F25">
-        <v>1.054090005983509</v>
+        <v>1.026911277306155</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.039145835748609</v>
+        <v>1.045550999254856</v>
       </c>
       <c r="J25">
-        <v>1.042101346105098</v>
+        <v>1.031251398442666</v>
       </c>
       <c r="K25">
-        <v>1.041834205911691</v>
+        <v>1.0349153158712</v>
       </c>
       <c r="L25">
-        <v>1.047808924977457</v>
+        <v>1.033085370869299</v>
       </c>
       <c r="M25">
-        <v>1.057086143002652</v>
+        <v>1.039105715436754</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>
